--- a/International_Names_Addresses.xlsx
+++ b/International_Names_Addresses.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Pandey\git\caterpillar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8600" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="International" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="628">
   <si>
     <t>First Name</t>
   </si>
@@ -72,9 +77,6 @@
     <t>465-2746 Ipsum Street</t>
   </si>
   <si>
-    <t>Jemeppe-sur-Sambre</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -1836,13 +1838,76 @@
     <t>Passed</t>
   </si>
   <si>
+    <t>357004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402 8A- </t>
+  </si>
+  <si>
+    <t>Program Interest</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Military Status</t>
+  </si>
+  <si>
     <t>True</t>
   </si>
   <si>
-    <t>357004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402 8A- </t>
+    <t>2016 Spring</t>
+  </si>
+  <si>
+    <t>Yvette.Carter@email.com</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Caryn.Baker@email.com</t>
+  </si>
+  <si>
+    <t>03790</t>
+  </si>
+  <si>
+    <t>Business (Human Resources)</t>
+  </si>
+  <si>
+    <t>Jemeppe</t>
+  </si>
+  <si>
+    <t>Business (Global Politics)</t>
+  </si>
+  <si>
+    <t>2016 Fall</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Piper.Jimenez@email.com</t>
+  </si>
+  <si>
+    <t>Accountancy (MACC)</t>
+  </si>
+  <si>
+    <t>Serena.Carey@email.com</t>
+  </si>
+  <si>
+    <t>2015 Fall</t>
+  </si>
+  <si>
+    <t>Illana.Nunez@email.com</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1915,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1871,6 +1936,12 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1948,7 +2019,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1960,12 +2031,15 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2250,7 +2324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2258,226 +2332,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="10.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="1" max="4" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.1796875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="17" width="10.453125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="11" width="10.453125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="31.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="25.6328125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="N2" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="12">
-        <v>3790</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="I3" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="J3" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10">
-        <v>856030</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="I4" s="13">
+        <v>856030</v>
+      </c>
+      <c r="J4" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10">
-        <v>878628</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="I5" s="13">
+        <v>878628</v>
+      </c>
+      <c r="J5" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="10">
-        <v>5193</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="I6" s="13">
+        <v>5193</v>
+      </c>
+      <c r="J6" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>41</v>
@@ -2485,2804 +2654,4214 @@
       <c r="I7" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="J7" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10">
-        <v>90004</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="I8" s="13">
+        <v>90004</v>
+      </c>
+      <c r="J8" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="I9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="11">
-        <v>7037</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="I10" s="9">
+        <v>7037</v>
+      </c>
+      <c r="J10" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="10">
-        <v>45458</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="I11" s="13">
+        <v>45458</v>
+      </c>
+      <c r="J11" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="I12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="11">
-        <v>75083</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="I13" s="9">
+        <v>75083</v>
+      </c>
+      <c r="J13" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1467</v>
+      </c>
+      <c r="J14" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1467</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="N14" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="10">
-        <v>16799</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+      <c r="I15" s="13">
+        <v>16799</v>
+      </c>
+      <c r="J15" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="F16" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="10">
-        <v>30600</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="I16" s="13">
+        <v>30600</v>
+      </c>
+      <c r="J16" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="J17" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="10">
-        <v>4195</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="I18" s="13">
+        <v>4195</v>
+      </c>
+      <c r="J18" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="10">
-        <v>77636</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="I19" s="13">
+        <v>77636</v>
+      </c>
+      <c r="J19" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="H20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="M20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="F21" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>127</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="J21" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="F22" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="10">
-        <v>319069</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+      <c r="I22" s="13">
+        <v>319069</v>
+      </c>
+      <c r="J22" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B23" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="11">
-        <v>102901</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1">
+      <c r="I23" s="9">
+        <v>102901</v>
+      </c>
+      <c r="J23" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="F24" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="10">
-        <v>10403</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+      <c r="I24" s="13">
+        <v>10403</v>
+      </c>
+      <c r="J24" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="11">
-        <v>6203</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
+      <c r="I25" s="9">
+        <v>6203</v>
+      </c>
+      <c r="J25" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="F26" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1330</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
+      <c r="I26" s="13">
+        <v>1330</v>
+      </c>
+      <c r="J26" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="F27" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
+      <c r="I27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B28" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="F28" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="11">
-        <v>22249</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1">
+      <c r="I28" s="9">
+        <v>22249</v>
+      </c>
+      <c r="J28" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B29" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="F29" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1">
+      <c r="I29" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="F30" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="10">
-        <v>73438</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1">
+      <c r="I30" s="13">
+        <v>73438</v>
+      </c>
+      <c r="J30" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B31" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="11">
-        <v>40372</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1">
+      <c r="I31" s="9">
+        <v>40372</v>
+      </c>
+      <c r="J31" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B32" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="F32" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32" s="11">
-        <v>13021</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+      <c r="I32" s="9">
+        <v>13021</v>
+      </c>
+      <c r="J32" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="F33" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
+      <c r="I33" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="F34" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1875</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+      <c r="I34" s="13">
+        <v>1875</v>
+      </c>
+      <c r="J34" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="F35" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="10">
-        <v>67930</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1">
+      <c r="I35" s="13">
+        <v>67930</v>
+      </c>
+      <c r="J35" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B36" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="F36" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="13">
-        <v>645249</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1">
+      <c r="I36" s="14">
+        <v>645249</v>
+      </c>
+      <c r="J36" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B37" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="F37" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="11">
-        <v>61868</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1">
+      <c r="I37" s="9">
+        <v>61868</v>
+      </c>
+      <c r="J37" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B38" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="F38" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="14">
-        <v>9251</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1">
+      <c r="I38" s="15">
+        <v>9251</v>
+      </c>
+      <c r="J38" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="F39" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F39" s="10">
-        <v>41500</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1">
+      <c r="I39" s="13">
+        <v>41500</v>
+      </c>
+      <c r="J39" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="F40" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F40" s="10">
-        <v>13768</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1">
+      <c r="I40" s="13">
+        <v>13768</v>
+      </c>
+      <c r="J40" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="F41" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1">
+      <c r="I41" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J41" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="F42" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1">
+      <c r="I42" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J42" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B43" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="F43" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1">
+      <c r="I43" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="J43" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B44" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="F44" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1">
+      <c r="I44" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="J44" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B45" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="F45" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" s="10">
-        <v>54808</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1">
+      <c r="I45" s="13">
+        <v>54808</v>
+      </c>
+      <c r="J45" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B46" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="F46" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="10">
-        <v>859201</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1">
+      <c r="I46" s="13">
+        <v>859201</v>
+      </c>
+      <c r="J46" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B47" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="F47" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47" s="10">
-        <v>12871</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1">
+      <c r="I47" s="13">
+        <v>12871</v>
+      </c>
+      <c r="J47" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B48" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="F48" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F48" s="10">
-        <v>6767</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1">
+      <c r="I48" s="13">
+        <v>6767</v>
+      </c>
+      <c r="J48" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B49" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="F49" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1">
+      <c r="I49" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J49" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B50" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="F50" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F50" s="10">
-        <v>1291</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1">
+      <c r="I50" s="13">
+        <v>1291</v>
+      </c>
+      <c r="J50" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="F51" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="H51" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I51" s="13">
+        <v>82472</v>
+      </c>
+      <c r="J51" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="M51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F51" s="10">
-        <v>82472</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="F52" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F52" s="10">
-        <v>87226</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1">
+      <c r="I52" s="13">
+        <v>87226</v>
+      </c>
+      <c r="J52" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B53" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="F53" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F53" s="10">
-        <v>4113</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1">
+      <c r="I53" s="13">
+        <v>4113</v>
+      </c>
+      <c r="J53" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B54" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="F54" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F54" s="10">
-        <v>380482</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1">
+      <c r="I54" s="13">
+        <v>380482</v>
+      </c>
+      <c r="J54" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B55" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="F55" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F55" s="10">
-        <v>923729</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1">
+      <c r="I55" s="13">
+        <v>923729</v>
+      </c>
+      <c r="J55" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B56" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="F56" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F56" s="10">
-        <v>95557</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1">
+      <c r="I56" s="13">
+        <v>95557</v>
+      </c>
+      <c r="J56" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B57" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="F57" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F57" s="10">
-        <v>3657</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1">
+      <c r="I57" s="13">
+        <v>3657</v>
+      </c>
+      <c r="J57" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B58" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="F58" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1">
+      <c r="I58" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="J58" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B59" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="F59" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F59" s="10">
-        <v>512592</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1">
+      <c r="I59" s="13">
+        <v>512592</v>
+      </c>
+      <c r="J59" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B60" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="F60" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F60" s="10">
-        <v>34181</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1">
+      <c r="I60" s="13">
+        <v>34181</v>
+      </c>
+      <c r="J60" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B61" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="F61" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="H61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="13">
+        <v>41458</v>
+      </c>
+      <c r="J61" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="10">
-        <v>41458</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="N61" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="F62" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F62" s="10">
-        <v>57834</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1">
+      <c r="I62" s="13">
+        <v>57834</v>
+      </c>
+      <c r="J62" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F63" s="10">
-        <v>60010</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1">
+      <c r="I63" s="13">
+        <v>60010</v>
+      </c>
+      <c r="J63" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B64" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="F64" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1">
+      <c r="I64" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="J64" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B65" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="F65" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="H65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="13">
+        <v>7858</v>
+      </c>
+      <c r="J65" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="10">
-        <v>7858</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="N65" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="F66" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F66" s="10">
-        <v>81091</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1">
+      <c r="I66" s="13">
+        <v>81091</v>
+      </c>
+      <c r="J66" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B67" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="F67" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F67" s="10">
-        <v>6621</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1">
+      <c r="I67" s="13">
+        <v>6621</v>
+      </c>
+      <c r="J67" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B68" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F68" s="10">
-        <v>44269</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1">
+      <c r="I68" s="13">
+        <v>44269</v>
+      </c>
+      <c r="J68" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B69" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="F69" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1">
+      <c r="I69" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J69" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B70" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="F70" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F70" s="10">
-        <v>7776</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1">
+      <c r="I70" s="13">
+        <v>7776</v>
+      </c>
+      <c r="J70" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B71" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="F71" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1">
+      <c r="I71" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="J71" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="H72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="J72" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F72" s="10" t="s">
+      <c r="M72" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="F73" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F73" s="10">
-        <v>4877</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1">
+      <c r="I73" s="13">
+        <v>4877</v>
+      </c>
+      <c r="J73" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B74" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F74" s="10">
-        <v>942043</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1">
+      <c r="I74" s="13">
+        <v>942043</v>
+      </c>
+      <c r="J74" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B75" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="F75" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1">
+      <c r="I75" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="J75" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B76" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="F76" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="H76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="13">
+        <v>1552</v>
+      </c>
+      <c r="J76" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L76" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" s="10">
-        <v>1552</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="N76" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="F77" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="H77" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I77" s="13">
+        <v>15396</v>
+      </c>
+      <c r="J77" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F77" s="10">
-        <v>15396</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="N77" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I77" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="F78" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F78" s="10">
-        <v>5162</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1">
+      <c r="I78" s="13">
+        <v>5162</v>
+      </c>
+      <c r="J78" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B79" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="F79" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="H79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I79" s="13">
+        <v>540974</v>
+      </c>
+      <c r="J79" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F79" s="10">
-        <v>540974</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="N79" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="I79" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="F80" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="F80" s="11">
-        <v>70204</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="I80" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1">
+      <c r="I80" s="9">
+        <v>70204</v>
+      </c>
+      <c r="J80" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B81" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="F81" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="H81" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" s="9">
+        <v>51009</v>
+      </c>
+      <c r="J81" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F81" s="11">
-        <v>51009</v>
-      </c>
-      <c r="G81" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="N81" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="F82" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="H82" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I82" s="9">
+        <v>18065</v>
+      </c>
+      <c r="J82" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L82" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F82" s="11">
-        <v>18065</v>
-      </c>
-      <c r="G82" s="4" t="s">
+      <c r="M82" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="N82" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="I82" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1">
-      <c r="A83" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="F83" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F83" s="11">
-        <v>8163</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1">
+      <c r="I83" s="9">
+        <v>8163</v>
+      </c>
+      <c r="J83" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B84" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="F84" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="H84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="J84" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L84" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F84" s="11" t="s">
+      <c r="M84" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="F85" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="H85" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I85" s="13">
+        <v>309349</v>
+      </c>
+      <c r="J85" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="M85" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F85" s="10">
-        <v>309349</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="F86" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="H86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="J86" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L86" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F86" s="10" t="s">
+      <c r="M86" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="F87" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F87" s="11">
-        <v>97203</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1">
+      <c r="I87" s="9">
+        <v>97203</v>
+      </c>
+      <c r="J87" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B88" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="F88" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="H88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I88" s="13">
+        <v>16470</v>
+      </c>
+      <c r="J88" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F88" s="10">
-        <v>16470</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="N88" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="F89" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="I89" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1">
+      <c r="I89" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="J89" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B90" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="F90" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>541</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1">
+        <v>542</v>
+      </c>
+      <c r="J90" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B91" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="F91" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I91" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1">
+      <c r="I91" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="J91" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B92" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="F92" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="I92" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1">
+      <c r="I92" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="J92" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C93" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="H93" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I93" s="9">
+        <v>4255</v>
+      </c>
+      <c r="J93" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L93" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F93" s="11">
-        <v>4255</v>
-      </c>
-      <c r="G93" s="4" t="s">
+      <c r="M93" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="N93" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="I93" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="F94" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="H94" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I94" s="13">
+        <v>61406</v>
+      </c>
+      <c r="J94" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F94" s="10">
-        <v>61406</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="M94" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="N94" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="F95" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1">
+      <c r="I95" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="J95" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B96" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="F96" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="F96" s="11">
-        <v>38870</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1">
+      <c r="I96" s="9">
+        <v>38870</v>
+      </c>
+      <c r="J96" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B97" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="F97" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F97" s="10">
-        <v>61208</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="I97" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1">
+      <c r="I97" s="13">
+        <v>61208</v>
+      </c>
+      <c r="J97" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B98" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="F98" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="I98" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1">
+      <c r="I98" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="J98" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B99" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="F99" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="H99" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="I99" s="9">
+        <v>8320</v>
+      </c>
+      <c r="J99" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K99" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L99" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="F99" s="11">
-        <v>8320</v>
-      </c>
-      <c r="G99" s="4" t="s">
+      <c r="M99" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="N99" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="I99" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1">
-      <c r="A100" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="F100" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="H100" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" s="9">
+        <v>407416</v>
+      </c>
+      <c r="J100" s="12">
+        <v>33475</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L100" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F100" s="11">
-        <v>407416</v>
-      </c>
-      <c r="G100" s="4" t="s">
+      <c r="M100" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:10" ht="15" customHeight="1">
-      <c r="J101" s="3"/>
+      <c r="N100" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
